--- a/打印店历年试卷情况汇总.xlsx
+++ b/打印店历年试卷情况汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clive\Documents\GitHub\Review-Materials-Sharing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Review-Materials-Sharing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,25 @@
   </si>
   <si>
     <t>电子技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新试卷版本（年）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,6 +263,1053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12147331583552055"/>
+          <c:y val="0.20354184893554972"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.42973024205307669"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>最新试卷版本（年）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$2:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>数据结构</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>马基（复习提纲）</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>线代</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>高数</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>概统</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>大物2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>数理方法</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>理论力学</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>数电</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>数分</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>大物1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>大化</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>毛概</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>电工</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>程序设计</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>思修</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>生物化学</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>生科导</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>近代史</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>离散</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>中级微观经济学</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>无机与分析化学</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>工程热力学</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>有机化学</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>电子技术</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>生物化学</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15D6-4FF4-AB8C-C2FF721F21B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="737828480"/>
+        <c:axId val="737828808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737828480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737828808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737828808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737828480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>474428</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>119124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8563258E-6CFA-4D8A-BB60-697D48C73649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6080760" y="4572000"/>
+          <a:ext cx="5358848" cy="2908044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE997C1-5876-461B-AECD-4F57B9EEE2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,231 +1609,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A996DC-4118-49D9-9D09-501EBC5A6210}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>2015</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
         <v>2012</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
         <v>2013</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
         <v>2014</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19">
         <v>2013</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22">
         <v>2013</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27">
         <v>2013</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:F29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>